--- a/cajas-diarias/caja-2023-09-12.xlsx
+++ b/cajas-diarias/caja-2023-09-12.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -448,9 +448,55 @@
         <v>EFECTIVO</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>-</v>
+      </c>
+      <c r="B3" t="str">
+        <v>100</v>
+      </c>
+      <c r="C3" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D3" t="str">
+        <v>-</v>
+      </c>
+      <c r="E3" t="str">
+        <v>-</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>EFECTIVO</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>-</v>
+      </c>
+      <c r="B4" t="str">
+        <v>20000</v>
+      </c>
+      <c r="C4" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D4" t="str">
+        <v>-</v>
+      </c>
+      <c r="E4" t="str">
+        <v>-</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>DEBITO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cajas-diarias/caja-2023-09-12.xlsx
+++ b/cajas-diarias/caja-2023-09-12.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -494,9 +494,193 @@
         <v>DEBITO</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>-</v>
+      </c>
+      <c r="B5" t="str">
+        <v>100000</v>
+      </c>
+      <c r="C5" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D5" t="str">
+        <v>-</v>
+      </c>
+      <c r="E5" t="str">
+        <v>-</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>EFECTIVO</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>-</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D6" t="str">
+        <v>-</v>
+      </c>
+      <c r="E6" t="str">
+        <v>-</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>TRANSFERENCIA</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>-2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>20000</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D7" t="str">
+        <v>-</v>
+      </c>
+      <c r="E7" t="str">
+        <v>-</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>-2</v>
+      </c>
+      <c r="B8" t="str">
+        <v>20000</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D8" t="str">
+        <v>-</v>
+      </c>
+      <c r="E8" t="str">
+        <v>-</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>-</v>
+      </c>
+      <c r="B9" t="str">
+        <v>123</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D9" t="str">
+        <v>-</v>
+      </c>
+      <c r="E9" t="str">
+        <v>-</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>EFECTIVO</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>123</v>
+      </c>
+      <c r="B10" t="str">
+        <v>123</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D10" t="str">
+        <v>-</v>
+      </c>
+      <c r="E10" t="str">
+        <v>-</v>
+      </c>
+      <c r="F10" t="str">
+        <v>123</v>
+      </c>
+      <c r="G10" t="str">
+        <v>DEBITO</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>123</v>
+      </c>
+      <c r="B11" t="str">
+        <v>123</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D11" t="str">
+        <v>-</v>
+      </c>
+      <c r="E11" t="str">
+        <v>-</v>
+      </c>
+      <c r="F11" t="str">
+        <v>123</v>
+      </c>
+      <c r="G11" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>123</v>
+      </c>
+      <c r="B12" t="str">
+        <v>123</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SUELTO</v>
+      </c>
+      <c r="D12" t="str">
+        <v>-</v>
+      </c>
+      <c r="E12" t="str">
+        <v>-</v>
+      </c>
+      <c r="F12" t="str">
+        <v>123</v>
+      </c>
+      <c r="G12" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G12"/>
   </ignoredErrors>
 </worksheet>
 </file>